--- a/examples/craigslist/artifact/data/SearchCraigslist.data.xlsx
+++ b/examples/craigslist/artifact/data/SearchCraigslist.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/craigslist/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93DDF37-E0AB-BF47-8D03-19189BAE66EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EF183-C849-D04B-887D-A8E0BF1C1C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21140" windowWidth="12800" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="-14920" windowWidth="12800" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>true</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>$(syspath|data|fullpath)/SearchCraigslist.post-result.html</t>
+  </si>
+  <si>
+    <t>nexial.pauseOnError</t>
+  </si>
+  <si>
+    <t>nexial.inspectOnPause</t>
   </si>
 </sst>
 </file>
@@ -1326,9 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA214"/>
+  <dimension ref="A1:AAA216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1411,370 +1419,384 @@
     </row>
     <row r="8" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="7"/>
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="HA9" s="6"/>
       <c r="AAA9" s="7"/>
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="HA10" s="6"/>
       <c r="AAA10" s="7"/>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="HA11" s="6"/>
       <c r="AAA11" s="7"/>
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="HA12" s="6"/>
       <c r="AAA12" s="7"/>
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="HA13" s="6"/>
+      <c r="AAA13" s="7"/>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="HA14" s="6"/>
+      <c r="AAA14" s="7"/>
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="19" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="31" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="45" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -2265,9 +2287,15 @@
     <row r="214" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
     </row>
+    <row r="215" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
-  <conditionalFormatting sqref="A47:A1048576 A1:A33 A35:A44">
+  <conditionalFormatting sqref="A49:A1048576 A1:A35 A37:A46">
     <cfRule type="beginsWith" dxfId="21" priority="17" stopIfTrue="1" operator="beginsWith" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
@@ -2281,7 +2309,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:AZ34 B47:AZ1048576 C45:AZ46 B1:AZ33 B35:AZ44">
+  <conditionalFormatting sqref="C36:AZ36 B49:AZ1048576 C47:AZ48 B1:AZ35 B37:AZ46">
     <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
     </cfRule>
@@ -2289,62 +2317,62 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A36">
     <cfRule type="beginsWith" dxfId="15" priority="13" stopIfTrue="1" operator="beginsWith" text="//">
-      <formula>LEFT(A34,LEN("//"))="//"</formula>
+      <formula>LEFT(A36,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="14" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="13" priority="15" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="12" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
+      <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A48">
     <cfRule type="beginsWith" dxfId="11" priority="7" stopIfTrue="1" operator="beginsWith" text="//">
-      <formula>LEFT(A46,LEN("//"))="//"</formula>
+      <formula>LEFT(A48,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="10" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A46,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A48,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="9" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A46,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A48,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>LEN(TRIM(A46))&gt;0</formula>
+      <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="6" priority="12">
-      <formula>LEN(TRIM(B46))&gt;0</formula>
+      <formula>LEN(TRIM(B48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A47">
     <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="//">
-      <formula>LEFT(A45,LEN("//"))="//"</formula>
+      <formula>LEFT(A47,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A45,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A47,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A45,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A47,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
+      <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
-      <formula>LEN(TRIM(B45))&gt;0</formula>
+      <formula>LEN(TRIM(B47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/craigslist/artifact/data/SearchCraigslist.data.xlsx
+++ b/examples/craigslist/artifact/data/SearchCraigslist.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/craigslist/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/craigslist/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EF183-C849-D04B-887D-A8E0BF1C1C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F87C0-BDA7-124D-8AB0-7CDAB5D42D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="-14920" windowWidth="12800" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-28340" windowWidth="25600" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
         <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="7"/>
